--- a/projects/retail_ideal_calibration.xlsx
+++ b/projects/retail_ideal_calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2305,9 +2305,6 @@
     <t>../seeds/EmptySeedModel.osm</t>
   </si>
   <si>
-    <t>../weather/*.epw</t>
-  </si>
-  <si>
     <t>NGridAddMonthlyUtilityData</t>
   </si>
   <si>
@@ -2363,6 +2360,9 @@
   </si>
   <si>
     <t>Calibration Reports</t>
+  </si>
+  <si>
+    <t>../weather/*</t>
   </si>
 </sst>
 </file>
@@ -6387,8 +6387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6717,7 +6717,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6768,13 +6768,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
+        <v>767</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6807,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -7731,13 +7731,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E39" s="38" t="s">
         <v>69</v>
@@ -7750,16 +7750,16 @@
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F40" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I40" s="31"/>
     </row>
@@ -7768,16 +7768,16 @@
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F41" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I41" s="31"/>
     </row>
@@ -7786,16 +7786,16 @@
         <v>21</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I42" s="31"/>
     </row>
@@ -7804,16 +7804,16 @@
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I43" s="31"/>
     </row>
@@ -7822,13 +7822,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E44" s="38" t="s">
         <v>234</v>

--- a/projects/retail_ideal_calibration.xlsx
+++ b/projects/retail_ideal_calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="782">
   <si>
     <t>type</t>
   </si>
@@ -1996,90 +1996,6 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>Unmet Cooling Hours</t>
-  </si>
-  <si>
-    <t>Unmet Heating Hours</t>
-  </si>
-  <si>
-    <t>Total Unmet Hours</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>Building Area</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heating_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
-    <t>standard_report.total_life_cycle_cost</t>
-  </si>
-  <si>
-    <t>Total Life Cycle Cost</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>Natural Gas Heating Intensity</t>
-  </si>
-  <si>
     <t>Total Site Energy Intensity</t>
   </si>
   <si>
@@ -2092,45 +2008,6 @@
     <t>Total Electricity Intensity</t>
   </si>
   <si>
-    <t>Cooling Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Interior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Exterior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Equipment Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>Experior Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Fans Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Pumps Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Heat Rejection Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Humidification Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Water Systems Electricity Intensity</t>
-  </si>
-  <si>
-    <t>Water Systems Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>Refrigeration Electricity Intensity</t>
-  </si>
-  <si>
     <t>SpaceTypeAndConstructionSetWizard</t>
   </si>
   <si>
@@ -2363,13 +2240,160 @@
   </si>
   <si>
     <t>../weather/*</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Total Electricity Consumption Modeled</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Total Electricity Peak Modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_peak_demand_modeled</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 1 Modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 2 Modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 3 Modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 4 Modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 5 Modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 6 Modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 7 Modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 8 Modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 9 Modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 10 Modeled</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 11 Modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_10_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_1_period_11_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 1 Modeled</t>
+  </si>
+  <si>
+    <t>Total Gas Consumption Modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>therms</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 2 Modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 3 Modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 4 Modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 5 Modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 6 Modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 7 Modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 8 Modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 9 Modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.utility_bill_2_period_9_consumption_modeled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2416,13 +2440,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4229,7 +4246,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4313,11 +4330,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1733">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6387,8 +6403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6435,7 +6451,7 @@
         <v>457</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>737</v>
+        <v>696</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>458</v>
@@ -6528,7 +6544,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>749</v>
+        <v>708</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>472</v>
@@ -6539,7 +6555,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>474</v>
@@ -6550,7 +6566,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>751</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6615,7 +6631,7 @@
         <v>452</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>750</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6717,7 +6733,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>773</v>
+        <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6742,10 +6758,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>734</v>
+        <v>693</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>753</v>
+        <v>712</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>626</v>
@@ -6768,13 +6784,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
-        <v>767</v>
+        <v>726</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>768</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -6807,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y210"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -6967,13 +6983,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>709</v>
+        <v>668</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>696</v>
+        <v>655</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>696</v>
+        <v>655</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>69</v>
@@ -6986,10 +7002,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>698</v>
+        <v>657</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>622</v>
@@ -7011,16 +7027,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>699</v>
+        <v>658</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>700</v>
+        <v>659</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>705</v>
+        <v>664</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -7034,16 +7050,16 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>701</v>
+        <v>660</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>702</v>
+        <v>661</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>706</v>
+        <v>665</v>
       </c>
       <c r="I7" s="31"/>
     </row>
@@ -7052,10 +7068,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>707</v>
+        <v>666</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>703</v>
+        <v>662</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>628</v>
@@ -7070,10 +7086,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>708</v>
+        <v>667</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>628</v>
@@ -7088,13 +7104,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>738</v>
+        <v>697</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>739</v>
+        <v>698</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>739</v>
+        <v>698</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>69</v>
@@ -7107,7 +7123,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>710</v>
+        <v>669</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>199</v>
@@ -7116,7 +7132,7 @@
         <v>623</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="H11" s="31">
         <v>50000</v>
@@ -7132,7 +7148,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>712</v>
+        <v>671</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>201</v>
@@ -7168,7 +7184,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>205</v>
@@ -7189,7 +7205,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>626</v>
@@ -7207,10 +7223,10 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>718</v>
+        <v>677</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>715</v>
+        <v>674</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>623</v>
@@ -7225,10 +7241,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>719</v>
+        <v>678</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>716</v>
+        <v>675</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>623</v>
@@ -7243,10 +7259,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>720</v>
+        <v>679</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>717</v>
+        <v>676</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>623</v>
@@ -7261,13 +7277,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>721</v>
+        <v>680</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>722</v>
+        <v>681</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>722</v>
+        <v>681</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>69</v>
@@ -7280,10 +7296,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>735</v>
+        <v>694</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>623</v>
@@ -7296,13 +7312,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>724</v>
+        <v>683</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>724</v>
+        <v>683</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>69</v>
@@ -7315,10 +7331,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>735</v>
+        <v>694</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>623</v>
@@ -7331,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>740</v>
+        <v>699</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>77</v>
@@ -7350,7 +7366,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>743</v>
+        <v>702</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>78</v>
@@ -7375,7 +7391,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>725</v>
+        <v>684</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>80</v>
@@ -7384,7 +7400,7 @@
         <v>623</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="H25" s="31">
         <v>30</v>
@@ -7403,7 +7419,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>730</v>
+        <v>689</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>82</v>
@@ -7412,10 +7428,10 @@
         <v>622</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>727</v>
+        <v>686</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -7431,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>747</v>
+        <v>706</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>77</v>
@@ -7450,7 +7466,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>744</v>
+        <v>703</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>78</v>
@@ -7475,7 +7491,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>725</v>
+        <v>684</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>80</v>
@@ -7484,7 +7500,7 @@
         <v>623</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="H29" s="31">
         <v>30</v>
@@ -7503,7 +7519,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>731</v>
+        <v>690</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>82</v>
@@ -7512,7 +7528,7 @@
         <v>622</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>83</v>
@@ -7531,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>748</v>
+        <v>707</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>77</v>
@@ -7550,7 +7566,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>745</v>
+        <v>704</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>78</v>
@@ -7575,7 +7591,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>725</v>
+        <v>684</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>80</v>
@@ -7584,7 +7600,7 @@
         <v>623</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="H33" s="31">
         <v>30</v>
@@ -7603,7 +7619,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>732</v>
+        <v>691</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>82</v>
@@ -7612,10 +7628,10 @@
         <v>622</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>728</v>
+        <v>687</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -7631,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>741</v>
+        <v>700</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>77</v>
@@ -7650,7 +7666,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>746</v>
+        <v>705</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>78</v>
@@ -7675,7 +7691,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>725</v>
+        <v>684</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>80</v>
@@ -7684,7 +7700,7 @@
         <v>623</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="H37" s="31">
         <v>30</v>
@@ -7703,7 +7719,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>733</v>
+        <v>692</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>82</v>
@@ -7712,10 +7728,10 @@
         <v>622</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>729</v>
+        <v>688</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -7731,13 +7747,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>755</v>
+        <v>714</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>754</v>
+        <v>713</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>754</v>
+        <v>713</v>
       </c>
       <c r="E39" s="38" t="s">
         <v>69</v>
@@ -7750,16 +7766,16 @@
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>757</v>
+        <v>716</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="F40" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>769</v>
+        <v>728</v>
       </c>
       <c r="I40" s="31"/>
     </row>
@@ -7768,16 +7784,16 @@
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>758</v>
+        <v>717</v>
       </c>
       <c r="F41" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>770</v>
+        <v>729</v>
       </c>
       <c r="I41" s="31"/>
     </row>
@@ -7786,16 +7802,16 @@
         <v>21</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>762</v>
+        <v>721</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>760</v>
+        <v>719</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>622</v>
       </c>
-      <c r="H42" s="43" t="s">
-        <v>765</v>
+      <c r="H42" s="41" t="s">
+        <v>724</v>
       </c>
       <c r="I42" s="31"/>
     </row>
@@ -7804,16 +7820,16 @@
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>763</v>
+        <v>722</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>761</v>
+        <v>720</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>622</v>
       </c>
-      <c r="H43" s="43" t="s">
-        <v>764</v>
+      <c r="H43" s="41" t="s">
+        <v>723</v>
       </c>
       <c r="I43" s="31"/>
     </row>
@@ -7822,13 +7838,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>772</v>
+        <v>731</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>771</v>
+        <v>730</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>771</v>
+        <v>730</v>
       </c>
       <c r="E44" s="38" t="s">
         <v>234</v>
@@ -8519,9 +8535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8625,7 +8641,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>645</v>
@@ -8646,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
@@ -8654,7 +8670,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>646</v>
@@ -8675,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
@@ -8684,7 +8700,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>648</v>
@@ -8713,7 +8729,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>647</v>
@@ -8742,26 +8758,26 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="41" t="b">
-        <v>0</v>
+      <c r="F8" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="G8" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -8770,26 +8786,26 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>651</v>
+        <v>738</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="41" t="b">
-        <v>0</v>
+      <c r="F9" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="G9" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -8798,26 +8814,26 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>654</v>
+        <v>739</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="41" t="b">
-        <v>0</v>
+      <c r="F10" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="G10" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
@@ -8826,14 +8842,14 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>656</v>
+        <v>741</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>660</v>
+        <v>751</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>65</v>
@@ -8845,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
@@ -8854,26 +8870,26 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>678</v>
+        <v>742</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>661</v>
+        <v>752</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H12" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
@@ -8882,26 +8898,26 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>683</v>
+        <v>743</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>662</v>
+        <v>753</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -8910,26 +8926,26 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>663</v>
+        <v>754</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
@@ -8938,26 +8954,26 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>685</v>
+        <v>745</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>664</v>
+        <v>755</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
@@ -8966,26 +8982,26 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>686</v>
+        <v>746</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>665</v>
+        <v>756</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -8994,26 +9010,26 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>687</v>
+        <v>747</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>666</v>
+        <v>757</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
@@ -9022,26 +9038,26 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>688</v>
+        <v>748</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>667</v>
+        <v>758</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -9050,26 +9066,26 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>689</v>
+        <v>749</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>668</v>
+        <v>759</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
@@ -9078,26 +9094,26 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>690</v>
+        <v>750</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>669</v>
+        <v>760</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F20" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
@@ -9106,26 +9122,26 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>691</v>
+        <v>762</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>670</v>
+        <v>763</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>469</v>
+        <v>765</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
@@ -9134,26 +9150,26 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>692</v>
+        <v>761</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>671</v>
+        <v>764</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>469</v>
+        <v>765</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -9162,26 +9178,26 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>693</v>
+        <v>766</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>469</v>
+        <v>765</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F23" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -9190,26 +9206,26 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>694</v>
+        <v>767</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>469</v>
+        <v>765</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -9218,26 +9234,26 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>695</v>
+        <v>768</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>674</v>
+        <v>776</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>469</v>
+        <v>765</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -9246,14 +9262,14 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>676</v>
+        <v>769</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>675</v>
+        <v>777</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>677</v>
+        <v>765</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>65</v>
@@ -9265,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -9273,28 +9289,116 @@
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+      <c r="A27" s="30" t="s">
+        <v>770</v>
+      </c>
       <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="30" t="s">
+        <v>771</v>
+      </c>
       <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="30" t="s">
+        <v>772</v>
+      </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="30" t="s">
+        <v>773</v>
+      </c>
       <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
@@ -9346,7 +9450,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17961,7 +18065,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>742</v>
+        <v>701</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>559</v>

--- a/projects/retail_ideal_calibration.xlsx
+++ b/projects/retail_ideal_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22840" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$139</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="789">
   <si>
     <t>type</t>
   </si>
@@ -2387,6 +2387,27 @@
   </si>
   <si>
     <t>calibration_reports.utility_bill_2_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>/Users/nlong/working/OpenStudio-analysis-spreadsheet/lib/calibration_data</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>Set Building Location And Design Days</t>
+  </si>
+  <si>
+    <t>ChangeBuildingLocation</t>
+  </si>
+  <si>
+    <t>USA_MA_Boston-Logan.Intl.AP.725090_TMY3.epw</t>
+  </si>
+  <si>
+    <t>weather_file_name</t>
+  </si>
+  <si>
+    <t>Weather File Name</t>
   </si>
 </sst>
 </file>
@@ -2511,8 +2532,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1733">
+  <cellStyleXfs count="1747">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4335,7 +4370,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1733">
+  <cellStyles count="1747">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5202,6 +5237,13 @@
     <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6068,6 +6110,13 @@
     <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6373,17 +6422,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>42</v>
       </c>
@@ -6401,23 +6450,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6426,7 +6475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>436</v>
       </c>
@@ -6435,7 +6484,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>437</v>
       </c>
@@ -6446,7 +6495,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
@@ -6457,7 +6506,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>470</v>
       </c>
@@ -6468,7 +6517,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>471</v>
       </c>
@@ -6479,7 +6528,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>443</v>
       </c>
@@ -6498,7 +6547,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>444</v>
       </c>
@@ -6517,7 +6566,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
@@ -6530,7 +6579,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6539,7 +6588,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -6550,7 +6599,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -6561,7 +6610,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6569,7 +6618,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>463</v>
       </c>
@@ -6580,7 +6629,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6591,7 +6640,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6602,7 +6651,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>467</v>
       </c>
@@ -6613,7 +6662,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6626,7 +6675,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>452</v>
       </c>
@@ -6634,11 +6683,11 @@
         <v>709</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>451</v>
       </c>
@@ -6655,67 +6704,67 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="31"/>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31"/>
       <c r="C25" s="34"/>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31"/>
       <c r="C26" s="34"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="B27" s="26"/>
       <c r="C27" s="34"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="B28" s="26"/>
       <c r="C28" s="34"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="B29" s="26"/>
       <c r="C29" s="34"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="B30" s="26"/>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -6728,7 +6777,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -6736,7 +6785,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -6753,10 +6802,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
+      <c r="B40" s="31" t="s">
+        <v>783</v>
+      </c>
       <c r="C40" s="31" t="s">
         <v>693</v>
       </c>
@@ -6767,7 +6819,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -6782,18 +6834,21 @@
         <v>616</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="31" t="s">
         <v>726</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>725</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="31" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -6821,39 +6876,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y210"/>
+  <dimension ref="A1:Y212"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6888,7 +6943,7 @@
       <c r="X1" s="42"/>
       <c r="Y1" s="42"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -6904,7 +6959,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6978,18 +7033,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>668</v>
+        <v>784</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>655</v>
+        <v>785</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>655</v>
+        <v>785</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>69</v>
@@ -6997,21 +7052,21 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>657</v>
+        <v>788</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>656</v>
+        <v>787</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>625</v>
+        <v>786</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -7022,303 +7077,312 @@
       <c r="P5" s="40"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>658</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="38" customFormat="1">
+      <c r="A6" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>655</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>655</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:25">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>622</v>
       </c>
       <c r="H7" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="B9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>665</v>
       </c>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="B10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E10" s="31" t="s">
         <v>662</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F10" s="31" t="s">
         <v>628</v>
       </c>
-      <c r="H8" s="31" t="b">
+      <c r="H10" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>667</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E11" s="31" t="s">
         <v>663</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F11" s="31" t="s">
         <v>628</v>
       </c>
-      <c r="H9" s="31" t="b">
+      <c r="H11" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="b">
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:25" s="38" customFormat="1">
+      <c r="A12" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B12" s="38" t="s">
         <v>697</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C12" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="B13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>669</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E13" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F13" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G13" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H13" s="31">
         <v>50000</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="I13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="B14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E14" s="31" t="s">
         <v>201</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="H12" s="31">
-        <v>2</v>
-      </c>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="H13" s="31">
-        <v>2</v>
-      </c>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>205</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>624</v>
-      </c>
       <c r="H14" s="31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>626</v>
+        <v>203</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="H15" s="31">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="B16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>674</v>
+        <v>205</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>623</v>
       </c>
+      <c r="G16" s="31" t="s">
+        <v>624</v>
+      </c>
       <c r="H16" s="31">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="B17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>623</v>
       </c>
       <c r="H17" s="31">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="B18" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>623</v>
       </c>
       <c r="H18" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="H19" s="31">
         <v>0.05</v>
       </c>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="B20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="31">
+        <v>0.05</v>
+      </c>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="38" customFormat="1">
       <c r="A21" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>69</v>
@@ -7326,7 +7390,7 @@
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
@@ -7342,18 +7406,18 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="38" customFormat="1">
       <c r="A23" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>77</v>
+        <v>683</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>77</v>
+        <v>683</v>
       </c>
       <c r="E23" s="38" t="s">
         <v>69</v>
@@ -7361,77 +7425,56 @@
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="B24" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>78</v>
+        <v>695</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:17" s="38" customFormat="1">
+      <c r="A25" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="H26" s="31">
         <v>0.4</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="H25" s="31">
-        <v>30</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>686</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -7442,40 +7485,52 @@
       <c r="P26" s="40"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
+      <c r="B27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="H27" s="31">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="B28" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="H28" s="31">
-        <v>0.4</v>
+        <v>622</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>686</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -7486,52 +7541,40 @@
       <c r="P28" s="40"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="31" t="s">
+    <row r="29" spans="1:17" s="38" customFormat="1">
+      <c r="A29" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="G29" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="H29" s="31">
-        <v>30</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>690</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>83</v>
+      <c r="H30" s="31">
+        <v>0.4</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -7542,40 +7585,52 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
+      <c r="B31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="H31" s="31">
+        <v>30</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="H32" s="31">
-        <v>0.4</v>
+        <v>622</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -7586,52 +7641,40 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="31" t="s">
+    <row r="33" spans="1:17" s="38" customFormat="1">
+      <c r="A33" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="B34" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="H33" s="31">
-        <v>30</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>687</v>
+      <c r="H34" s="31">
+        <v>0.4</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -7642,40 +7685,52 @@
       <c r="P34" s="40"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>700</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
+      <c r="B35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="H35" s="31">
+        <v>30</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="B36" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="H36" s="31">
-        <v>0.4</v>
+        <v>622</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>687</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -7686,52 +7741,40 @@
       <c r="P36" s="40"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="31" t="s">
+    <row r="37" spans="1:17" s="38" customFormat="1">
+      <c r="A37" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>700</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="B38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="H37" s="31">
-        <v>30</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>692</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>688</v>
+      <c r="H38" s="31">
+        <v>0.4</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -7742,787 +7785,843 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
+      <c r="B39" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="H39" s="31">
+        <v>30</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>715</v>
+        <v>82</v>
       </c>
       <c r="F40" s="31" t="s">
         <v>622</v>
       </c>
+      <c r="G40" s="31" t="s">
+        <v>685</v>
+      </c>
       <c r="H40" s="31" t="s">
-        <v>728</v>
-      </c>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>717</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>729</v>
-      </c>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" s="38" customFormat="1">
+      <c r="A41" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>622</v>
       </c>
-      <c r="H42" s="41" t="s">
-        <v>724</v>
+      <c r="H42" s="31" t="s">
+        <v>728</v>
       </c>
       <c r="I42" s="31"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>622</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="B44" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>724</v>
+      </c>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="B45" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="H45" s="41" t="s">
         <v>723</v>
       </c>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="b">
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:17" s="38" customFormat="1">
+      <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B46" s="38" t="s">
         <v>731</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C46" s="38" t="s">
         <v>730</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D46" s="38" t="s">
         <v>730</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E46" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:9">
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:9">
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:9">
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:9">
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:9">
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:9">
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:9">
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:9">
       <c r="H56" s="31"/>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:9">
       <c r="H57" s="31"/>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:9">
       <c r="H58" s="31"/>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:9">
       <c r="H59" s="31"/>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:9">
       <c r="H60" s="31"/>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:9">
       <c r="H61" s="31"/>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:9">
       <c r="H62" s="31"/>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:9">
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:9">
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:9">
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:9">
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:9">
       <c r="H67" s="31"/>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:9">
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:9">
       <c r="H69" s="31"/>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:9">
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:9">
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:9">
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:9">
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:9">
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:9">
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:9">
       <c r="H76" s="31"/>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:9">
       <c r="H77" s="31"/>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:9">
       <c r="H78" s="31"/>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:9">
       <c r="H79" s="31"/>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:9">
       <c r="H80" s="31"/>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:9">
       <c r="H81" s="31"/>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:9">
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:9">
       <c r="H83" s="31"/>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:9">
       <c r="H84" s="31"/>
       <c r="I84" s="31"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:9">
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:9">
       <c r="H86" s="31"/>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:9">
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:9">
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:9">
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:9">
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:9">
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:9">
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:9">
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:9">
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:9">
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:9">
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:9">
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:9">
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:9">
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:9">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:9">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:9">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:9">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:9">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:9">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:9">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:9">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:9">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:9">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:9">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:9">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:9">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
+    <row r="211" spans="8:9">
+      <c r="H211" s="31"/>
+      <c r="I211" s="31"/>
+    </row>
+    <row r="212" spans="8:9">
+      <c r="H212" s="31"/>
+      <c r="I212" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z137"/>
+  <autoFilter ref="A2:Z139"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8535,25 +8634,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8568,7 +8667,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>460</v>
       </c>
@@ -8603,7 +8702,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>635</v>
       </c>
@@ -8639,7 +8738,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>651</v>
       </c>
@@ -8668,7 +8767,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>652</v>
       </c>
@@ -8698,7 +8797,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>653</v>
       </c>
@@ -8727,7 +8826,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>654</v>
       </c>
@@ -8756,7 +8855,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
         <v>734</v>
       </c>
@@ -8784,7 +8883,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
         <v>736</v>
       </c>
@@ -8812,7 +8911,7 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
         <v>739</v>
       </c>
@@ -8840,7 +8939,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
         <v>741</v>
       </c>
@@ -8868,7 +8967,7 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
         <v>742</v>
       </c>
@@ -8896,7 +8995,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
         <v>743</v>
       </c>
@@ -8924,7 +9023,7 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
         <v>744</v>
       </c>
@@ -8952,7 +9051,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>745</v>
       </c>
@@ -8980,7 +9079,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
         <v>746</v>
       </c>
@@ -9008,7 +9107,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>747</v>
       </c>
@@ -9036,7 +9135,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
         <v>748</v>
       </c>
@@ -9064,7 +9163,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>749</v>
       </c>
@@ -9092,7 +9191,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
         <v>750</v>
       </c>
@@ -9120,7 +9219,7 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
         <v>762</v>
       </c>
@@ -9148,7 +9247,7 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>761</v>
       </c>
@@ -9176,7 +9275,7 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>766</v>
       </c>
@@ -9204,7 +9303,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>767</v>
       </c>
@@ -9232,7 +9331,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
         <v>768</v>
       </c>
@@ -9260,7 +9359,7 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>769</v>
       </c>
@@ -9288,7 +9387,7 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
         <v>770</v>
       </c>
@@ -9316,7 +9415,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
         <v>771</v>
       </c>
@@ -9344,7 +9443,7 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
         <v>772</v>
       </c>
@@ -9372,7 +9471,7 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
         <v>773</v>
       </c>
@@ -9400,49 +9499,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9450,7 +9549,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9467,19 +9566,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -9498,7 +9597,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -9519,7 +9618,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -9542,7 +9641,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -9565,7 +9664,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -9588,7 +9687,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -9611,7 +9710,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -9634,7 +9733,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -9657,7 +9756,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -9680,7 +9779,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -9703,7 +9802,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -9722,7 +9821,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -9743,7 +9842,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -9766,7 +9865,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -9789,7 +9888,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -9812,7 +9911,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -9835,7 +9934,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -9858,7 +9957,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -9881,7 +9980,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -9904,7 +10003,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -9927,7 +10026,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -9946,7 +10045,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -9969,7 +10068,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -9992,7 +10091,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -10015,7 +10114,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -10038,7 +10137,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -10061,7 +10160,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -10084,7 +10183,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -10107,7 +10206,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -10130,7 +10229,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -10153,7 +10252,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -10172,7 +10271,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -10193,7 +10292,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -10216,7 +10315,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -10239,7 +10338,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -10262,7 +10361,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -10285,7 +10384,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -10308,7 +10407,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -10331,7 +10430,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -10354,7 +10453,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -10377,7 +10476,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -10396,7 +10495,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -10417,7 +10516,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -10440,7 +10539,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -10463,7 +10562,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -10486,7 +10585,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -10509,7 +10608,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -10532,7 +10631,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -10555,7 +10654,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -10578,7 +10677,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -10601,7 +10700,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -10620,7 +10719,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -10641,7 +10740,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -10664,7 +10763,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -10687,7 +10786,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -10710,7 +10809,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -10733,7 +10832,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -10756,7 +10855,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -10779,7 +10878,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -10802,7 +10901,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -10825,7 +10924,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -10844,7 +10943,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -10865,7 +10964,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -10890,7 +10989,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -10913,7 +11012,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -10936,7 +11035,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -10959,7 +11058,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -10982,7 +11081,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -11005,7 +11104,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -11028,7 +11127,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -11051,7 +11150,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -11074,7 +11173,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -11093,7 +11192,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -11114,7 +11213,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -11137,7 +11236,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -11162,7 +11261,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -11185,7 +11284,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -11208,7 +11307,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -11231,7 +11330,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -11254,7 +11353,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -11277,7 +11376,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -11300,7 +11399,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -11323,7 +11422,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -11346,7 +11445,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -11369,7 +11468,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -11392,7 +11491,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -11411,7 +11510,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -11434,7 +11533,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -11457,7 +11556,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -11480,7 +11579,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -11503,7 +11602,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -11526,7 +11625,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -11549,7 +11648,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -11572,7 +11671,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -11595,7 +11694,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -11618,7 +11717,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -11641,7 +11740,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -11660,7 +11759,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -11685,7 +11784,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -11704,7 +11803,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -11725,7 +11824,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -11750,7 +11849,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -11769,7 +11868,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -11792,7 +11891,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -11817,7 +11916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -11840,7 +11939,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -11861,7 +11960,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -11880,7 +11979,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -11905,7 +12004,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -11928,7 +12027,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -11951,7 +12050,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -11974,7 +12073,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -11997,7 +12096,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -12020,7 +12119,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -12043,7 +12142,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -12062,7 +12161,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -12085,7 +12184,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -12108,7 +12207,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -12131,7 +12230,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -12150,7 +12249,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -12173,7 +12272,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -12196,7 +12295,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -12219,7 +12318,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -12242,7 +12341,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -12265,7 +12364,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -12288,7 +12387,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -12307,7 +12406,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -12332,7 +12431,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -12355,7 +12454,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -12378,7 +12477,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -12401,7 +12500,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -12424,7 +12523,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -12447,7 +12546,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -12470,7 +12569,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -12493,7 +12592,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -12516,7 +12615,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -12535,7 +12634,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -12560,7 +12659,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -12581,7 +12680,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -12604,7 +12703,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -12627,7 +12726,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -12650,7 +12749,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -12673,7 +12772,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -12696,7 +12795,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -12719,7 +12818,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -12742,7 +12841,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -12765,7 +12864,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -12788,7 +12887,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -12811,7 +12910,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -12834,7 +12933,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -12857,7 +12956,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -12876,7 +12975,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -12899,7 +12998,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -12918,7 +13017,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -12941,7 +13040,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -12964,7 +13063,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -12983,7 +13082,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -13008,7 +13107,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -13031,7 +13130,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -13054,7 +13153,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -13077,7 +13176,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -13100,7 +13199,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -13123,7 +13222,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -13146,7 +13245,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -13169,7 +13268,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -13192,7 +13291,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -13215,7 +13314,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -13234,7 +13333,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -13259,7 +13358,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -13282,7 +13381,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -13305,7 +13404,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -13328,7 +13427,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -13351,7 +13450,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -13374,7 +13473,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -13397,7 +13496,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -13420,7 +13519,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -13443,7 +13542,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -13466,7 +13565,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -13485,7 +13584,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -13508,7 +13607,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -13531,7 +13630,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -13554,7 +13653,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -13577,7 +13676,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -13596,7 +13695,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -13619,7 +13718,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -13642,7 +13741,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -13665,7 +13764,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -13688,7 +13787,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -13707,7 +13806,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -13728,7 +13827,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -13751,7 +13850,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -13770,7 +13869,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -13793,7 +13892,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -13818,7 +13917,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -13839,7 +13938,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -13864,7 +13963,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -13889,7 +13988,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -13908,7 +14007,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -13933,7 +14032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -13956,7 +14055,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -13979,7 +14078,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -14002,7 +14101,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -14025,7 +14124,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -14048,7 +14147,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -14071,7 +14170,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -14094,7 +14193,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -14117,7 +14216,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -14136,7 +14235,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -14161,7 +14260,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -14184,7 +14283,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -14207,7 +14306,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -14230,7 +14329,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -14253,7 +14352,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -14276,7 +14375,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -14299,7 +14398,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -14322,7 +14421,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -14345,7 +14444,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -14364,7 +14463,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -14385,7 +14484,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -14408,7 +14507,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -14431,7 +14530,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -14454,7 +14553,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -14477,7 +14576,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -14500,7 +14599,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -14523,7 +14622,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -14546,7 +14645,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -14569,7 +14668,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -14592,7 +14691,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -14615,7 +14714,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -14638,7 +14737,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -14661,7 +14760,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -14684,7 +14783,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -14707,7 +14806,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -14730,7 +14829,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -14749,7 +14848,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -14770,7 +14869,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -14793,7 +14892,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -14816,7 +14915,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -14839,7 +14938,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -14862,7 +14961,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -14885,7 +14984,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -14908,7 +15007,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -14931,7 +15030,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -14954,7 +15053,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -14977,7 +15076,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -15000,7 +15099,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -15023,7 +15122,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -15046,7 +15145,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -15069,7 +15168,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -15092,7 +15191,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -15115,7 +15214,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -15134,7 +15233,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -15159,7 +15258,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -15182,7 +15281,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -15205,7 +15304,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -15228,7 +15327,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -15251,7 +15350,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -15270,7 +15369,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -15295,7 +15394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -15318,7 +15417,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -15337,7 +15436,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -15356,7 +15455,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -15375,7 +15474,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -15396,7 +15495,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -15419,7 +15518,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -15442,7 +15541,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -15465,7 +15564,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -15488,7 +15587,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -15511,7 +15610,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -15534,7 +15633,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -15557,7 +15656,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -15580,7 +15679,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -15603,7 +15702,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -15626,7 +15725,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -15645,7 +15744,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -15668,7 +15767,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -15687,7 +15786,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -15712,7 +15811,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -15735,7 +15834,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -15758,7 +15857,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -15781,7 +15880,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -15804,7 +15903,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -15827,7 +15926,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -15850,7 +15949,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -15873,7 +15972,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -15896,7 +15995,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -15919,7 +16018,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -15942,7 +16041,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -15961,7 +16060,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -15984,7 +16083,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -16003,7 +16102,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -16024,7 +16123,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -16043,7 +16142,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -16064,7 +16163,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -16083,7 +16182,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -16104,7 +16203,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -16123,7 +16222,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -16146,7 +16245,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -16165,7 +16264,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -16190,7 +16289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -16213,7 +16312,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -16236,7 +16335,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -16259,7 +16358,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -16282,7 +16381,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -16305,7 +16404,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -16328,7 +16427,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -16351,7 +16450,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -16374,7 +16473,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -16393,7 +16492,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -16416,7 +16515,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -16439,7 +16538,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -16462,7 +16561,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -16485,7 +16584,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -16504,7 +16603,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -16527,7 +16626,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -16550,7 +16649,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -16575,7 +16674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -16594,7 +16693,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -16619,7 +16718,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -16642,7 +16741,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -16661,7 +16760,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -16682,7 +16781,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -16703,7 +16802,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -16726,7 +16825,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -16745,7 +16844,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -16764,7 +16863,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -16789,7 +16888,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -16814,7 +16913,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -16828,7 +16927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -16851,7 +16950,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -16871,7 +16970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -16891,7 +16990,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -16911,7 +17010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -16928,7 +17027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -16951,7 +17050,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -16974,7 +17073,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -16988,7 +17087,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -17011,7 +17110,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -17034,7 +17133,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -17054,7 +17153,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -17074,7 +17173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -17091,7 +17190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -17117,7 +17216,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -17146,7 +17245,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -17185,7 +17284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -17199,7 +17298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -17219,7 +17318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -17233,7 +17332,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -17253,7 +17352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -17273,7 +17372,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -17293,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -17313,7 +17412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -17333,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -17353,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -17373,7 +17472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -17393,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -17413,7 +17512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -17427,7 +17526,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -17447,7 +17546,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -17467,7 +17566,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -17483,7 +17582,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -17509,7 +17608,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -17550,7 +17649,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -17564,7 +17663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -17584,7 +17683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -17598,7 +17697,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -17637,17 +17736,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>442</v>
       </c>
@@ -17658,7 +17757,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>591</v>
       </c>
@@ -17672,7 +17771,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>594</v>
       </c>
@@ -17686,7 +17785,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>596</v>
       </c>
@@ -17700,7 +17799,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>598</v>
       </c>
@@ -17714,7 +17813,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>600</v>
       </c>
@@ -17728,7 +17827,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>441</v>
       </c>
@@ -17742,7 +17841,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>603</v>
       </c>
@@ -17756,7 +17855,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>605</v>
       </c>
@@ -17770,7 +17869,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>571</v>
       </c>
@@ -17784,7 +17883,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>455</v>
       </c>
@@ -17798,7 +17897,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>453</v>
       </c>
@@ -17809,8 +17908,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>549</v>
       </c>
@@ -17836,7 +17935,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>550</v>
       </c>
@@ -17877,7 +17976,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -17918,7 +18017,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>544</v>
       </c>
@@ -17950,7 +18049,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>552</v>
       </c>
@@ -17982,7 +18081,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>551</v>
       </c>
@@ -18011,7 +18110,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>553</v>
       </c>
@@ -18043,7 +18142,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>554</v>
       </c>
@@ -18063,7 +18162,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>701</v>
       </c>
@@ -18086,7 +18185,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>560</v>
       </c>
@@ -18097,7 +18196,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>541</v>
       </c>
@@ -18105,7 +18204,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>543</v>
       </c>
